--- a/groups/23-24-Univers/tasks_results/23.12.03.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.03.xlsx
@@ -10,45 +10,60 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
+    <t>Acmp</t>
+  </si>
+  <si>
+    <t>369588</t>
   </si>
   <si>
     <t>430719</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415486</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -58,10 +73,10 @@
     <t>11</t>
   </si>
   <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
     <t>4+, 5-</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
   </si>
   <si>
     <t>1+</t>
@@ -492,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -542,214 +557,235 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21"/>
+  <autoFilter ref="A1:E22"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A8" r:id="rId11"/>
+    <hyperlink ref="A9" r:id="rId12"/>
+    <hyperlink ref="A10" r:id="rId13"/>
+    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="A15" r:id="rId18"/>
+    <hyperlink ref="A16" r:id="rId19"/>
+    <hyperlink ref="A17" r:id="rId20"/>
+    <hyperlink ref="A18" r:id="rId21"/>
+    <hyperlink ref="A19" r:id="rId22"/>
+    <hyperlink ref="A20" r:id="rId23"/>
+    <hyperlink ref="A21" r:id="rId24"/>
+    <hyperlink ref="A22" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/23-24-Univers/tasks_results/23.12.03.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -112,6 +112,9 @@
     <t>356</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>480</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>787</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,13 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -595,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -636,6 +649,9 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -658,6 +674,9 @@
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -668,34 +687,40 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>
@@ -703,7 +728,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
@@ -720,17 +745,17 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -742,20 +767,23 @@
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/groups/23-24-Univers/tasks_results/23.12.03.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -121,13 +121,13 @@
     <t>510</t>
   </si>
   <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
     <t>544</t>
   </si>
   <si>
     <t>2+, 3-</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
   </si>
   <si>
     <t>554</t>
@@ -588,13 +588,13 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -708,19 +708,25 @@
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>27</v>

--- a/groups/23-24-Univers/tasks_results/23.12.03.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -711,8 +711,11 @@
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
